--- a/5 - wordlist created from original source/wordlist.xlsx
+++ b/5 - wordlist created from original source/wordlist.xlsx
@@ -3798,9 +3798,6 @@
     <t>God</t>
   </si>
   <si>
-    <t>Tuhan</t>
-  </si>
-  <si>
     <t>to_pray</t>
   </si>
   <si>
@@ -4825,6 +4822,9 @@
   </si>
   <si>
     <t>ibu</t>
+  </si>
+  <si>
+    <t>Tuhan Allah</t>
   </si>
 </sst>
 </file>
@@ -6101,14 +6101,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AMI608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F215" sqref="F215"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D542" sqref="D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" style="4" customWidth="1"/>
     <col min="3" max="3" width="7.1796875" style="5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10.453125" style="5" bestFit="1" customWidth="1"/>
@@ -6155,16 +6155,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>1574</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>1575</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -6299,16 +6299,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C6" s="5">
         <v>965</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>1492</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1493</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -6449,16 +6449,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C11" s="5">
         <v>1977</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>1494</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>1495</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>12</v>
@@ -6671,7 +6671,7 @@
         <v>13</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -6701,7 +6701,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -7077,7 +7077,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C32" s="5">
         <v>646</v>
@@ -7086,10 +7086,10 @@
         <v>15</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>1489</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>1490</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>12</v>
@@ -7098,7 +7098,7 @@
         <v>13</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -7681,7 +7681,7 @@
         <v>79</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>80</v>
@@ -7998,16 +7998,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C63" s="5">
         <v>388</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>1306</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>1307</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>136</v>
@@ -8466,16 +8466,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C79" s="5">
         <v>363</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>1468</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>1469</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>197</v>
@@ -8581,16 +8581,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C83" s="5">
         <v>1143</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>1418</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>1419</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>146</v>
@@ -8610,16 +8610,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C84" s="5">
         <v>3176</v>
       </c>
       <c r="E84" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>1485</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>1486</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>197</v>
@@ -8628,7 +8628,7 @@
         <v>13</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -8640,16 +8640,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C85" s="4">
         <v>225</v>
       </c>
       <c r="E85" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>1505</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>1506</v>
       </c>
       <c r="G85" t="s">
         <v>146</v>
@@ -8663,16 +8663,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C86" s="4">
         <v>224</v>
       </c>
       <c r="E86" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>1520</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>1521</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>146</v>
@@ -8715,16 +8715,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C88" s="5">
         <v>279</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>1473</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>1474</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>197</v>
@@ -8743,16 +8743,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C89" s="5">
         <v>829</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>1479</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>1480</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>197</v>
@@ -8771,16 +8771,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C90" s="5">
         <v>2100</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>1482</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>1483</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>197</v>
@@ -8799,16 +8799,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C91" s="5">
         <v>280</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>1476</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>1477</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>197</v>
@@ -8827,16 +8827,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C92" s="5">
         <v>245</v>
       </c>
       <c r="E92" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>1470</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>1471</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>197</v>
@@ -8980,16 +8980,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C97" s="5">
         <v>239</v>
       </c>
       <c r="E97" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>1380</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>1381</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>109</v>
@@ -9009,16 +9009,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C98" s="4">
         <v>124</v>
       </c>
       <c r="E98" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>1515</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>1516</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>109</v>
@@ -9050,7 +9050,7 @@
         <v>13</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="5"/>
@@ -9063,16 +9063,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C100" s="5">
         <v>2628</v>
       </c>
       <c r="E100" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>1384</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>1385</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>109</v>
@@ -9243,16 +9243,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C106" s="5">
         <v>2749</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>1387</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>1388</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>109</v>
@@ -9261,7 +9261,7 @@
         <v>13</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -9512,16 +9512,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C115" s="5">
         <v>3155</v>
       </c>
       <c r="E115" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F115" s="3" t="s">
         <v>1394</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>1395</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>109</v>
@@ -9657,16 +9657,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C120" s="5">
         <v>974</v>
       </c>
       <c r="E120" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>1382</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>1383</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>109</v>
@@ -9802,16 +9802,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C125" s="5">
         <v>3031</v>
       </c>
       <c r="E125" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>1391</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>1392</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>109</v>
@@ -9889,16 +9889,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
       </c>
       <c r="E128" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>1537</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>1538</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>109</v>
@@ -9907,7 +9907,7 @@
         <v>13</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -9944,16 +9944,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C130" s="5">
         <v>3156</v>
       </c>
       <c r="E130" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>1397</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>1398</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>109</v>
@@ -9962,7 +9962,7 @@
         <v>13</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
@@ -10354,16 +10354,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C144" s="4">
         <v>862</v>
       </c>
       <c r="E144" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F144" s="4" t="s">
         <v>1517</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>1518</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>146</v>
@@ -10409,16 +10409,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C146" s="4">
         <v>1560</v>
       </c>
       <c r="E146" s="4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>1526</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>1527</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>316</v>
@@ -11028,7 +11028,7 @@
         <v>13</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="J166" s="3"/>
       <c r="K166" s="5"/>
@@ -11099,16 +11099,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C169" s="5">
         <v>1473</v>
       </c>
       <c r="E169" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F169" s="3" t="s">
         <v>1463</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>1464</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>316</v>
@@ -11197,7 +11197,7 @@
         <v>400</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>316</v>
@@ -11416,7 +11416,7 @@
         <v>13</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
@@ -11429,16 +11429,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C180" s="5">
         <v>318</v>
       </c>
       <c r="E180" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F180" s="3" t="s">
         <v>1457</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>1458</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>316</v>
@@ -11518,16 +11518,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C183" s="5">
         <v>805</v>
       </c>
       <c r="E183" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F183" s="3" t="s">
         <v>1460</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>1461</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>316</v>
@@ -11536,7 +11536,7 @@
         <v>13</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
@@ -11723,7 +11723,7 @@
         <v>13</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
@@ -11860,16 +11860,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C194" s="4">
         <v>1583</v>
       </c>
       <c r="E194" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F194" s="4" t="s">
         <v>1528</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>1529</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>316</v>
@@ -12063,16 +12063,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C201" s="4">
         <v>1142</v>
       </c>
       <c r="E201" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F201" s="4" t="s">
         <v>1502</v>
-      </c>
-      <c r="F201" s="4" t="s">
-        <v>1503</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>316</v>
@@ -12458,7 +12458,7 @@
         <v>459</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>443</v>
@@ -12864,7 +12864,7 @@
         <v>1165</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>443</v>
@@ -13143,7 +13143,7 @@
         <v>32</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J237" s="5"/>
       <c r="K237" s="5"/>
@@ -13811,16 +13811,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C260" s="4">
         <v>762</v>
       </c>
       <c r="E260" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F260" s="4" t="s">
         <v>1513</v>
-      </c>
-      <c r="F260" s="4" t="s">
-        <v>1514</v>
       </c>
       <c r="G260" s="4" t="s">
         <v>86</v>
@@ -13834,16 +13834,16 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C261" s="4">
         <v>1883</v>
       </c>
       <c r="E261" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F261" s="4" t="s">
         <v>1511</v>
-      </c>
-      <c r="F261" s="4" t="s">
-        <v>1512</v>
       </c>
       <c r="G261" s="4" t="s">
         <v>86</v>
@@ -13857,16 +13857,16 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C262" s="4">
         <v>863</v>
       </c>
       <c r="E262" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F262" s="4" t="s">
         <v>1532</v>
-      </c>
-      <c r="F262" s="4" t="s">
-        <v>1533</v>
       </c>
       <c r="G262" s="4" t="s">
         <v>86</v>
@@ -13929,7 +13929,7 @@
         <v>32</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="J264" s="5"/>
       <c r="K264" s="5"/>
@@ -14155,16 +14155,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C272" s="5">
         <v>1241</v>
       </c>
       <c r="E272" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F272" s="3" t="s">
         <v>1440</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>1441</v>
       </c>
       <c r="G272" s="5" t="s">
         <v>557</v>
@@ -14624,7 +14624,7 @@
         <v>579</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G287" s="5" t="s">
         <v>564</v>
@@ -14662,7 +14662,7 @@
         <v>13</v>
       </c>
       <c r="I288" s="6" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="J288" s="6"/>
       <c r="K288" s="5"/>
@@ -14675,16 +14675,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C289" s="5">
         <v>235</v>
       </c>
       <c r="E289" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F289" s="3" t="s">
         <v>1403</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>1404</v>
       </c>
       <c r="G289" s="5" t="s">
         <v>564</v>
@@ -14693,7 +14693,7 @@
         <v>13</v>
       </c>
       <c r="I289" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="J289" s="6"/>
       <c r="K289" s="5"/>
@@ -14706,16 +14706,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C290" s="5">
         <v>3157</v>
       </c>
       <c r="E290" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F290" s="3" t="s">
         <v>1413</v>
-      </c>
-      <c r="F290" s="3" t="s">
-        <v>1414</v>
       </c>
       <c r="G290" s="5" t="s">
         <v>564</v>
@@ -14753,7 +14753,7 @@
         <v>13</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="J291" s="3"/>
       <c r="K291" s="5"/>
@@ -14824,16 +14824,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C294" s="5">
         <v>2355</v>
       </c>
       <c r="E294" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F294" s="3" t="s">
         <v>1409</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>1410</v>
       </c>
       <c r="G294" s="5" t="s">
         <v>564</v>
@@ -14842,7 +14842,7 @@
         <v>13</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J294" s="5"/>
       <c r="K294" s="5"/>
@@ -14913,16 +14913,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C297" s="4">
         <v>949</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G297" s="4" t="s">
         <v>564</v>
@@ -14931,7 +14931,7 @@
         <v>13</v>
       </c>
       <c r="I297" s="4" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -14968,16 +14968,16 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C299" s="5">
         <v>1504</v>
       </c>
       <c r="E299" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F299" s="3" t="s">
         <v>1406</v>
-      </c>
-      <c r="F299" s="3" t="s">
-        <v>1407</v>
       </c>
       <c r="G299" s="5" t="s">
         <v>564</v>
@@ -15160,7 +15160,7 @@
         <v>13</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="J305" s="5"/>
       <c r="K305" s="5"/>
@@ -15173,7 +15173,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C306" s="5">
         <v>1392</v>
@@ -15182,10 +15182,10 @@
         <v>15</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G306" s="5" t="s">
         <v>564</v>
@@ -15458,7 +15458,7 @@
         <v>13</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="J315" s="3"/>
       <c r="K315" s="5"/>
@@ -15489,7 +15489,7 @@
         <v>13</v>
       </c>
       <c r="I316" s="5" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="J316" s="5"/>
       <c r="K316" s="5"/>
@@ -15566,16 +15566,16 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C319" s="5">
         <v>711</v>
       </c>
       <c r="E319" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F319" s="3" t="s">
         <v>1448</v>
-      </c>
-      <c r="F319" s="3" t="s">
-        <v>1449</v>
       </c>
       <c r="G319" s="5" t="s">
         <v>86</v>
@@ -15594,16 +15594,16 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C320" s="5">
         <v>1645</v>
       </c>
       <c r="E320" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F320" s="5" t="s">
         <v>1451</v>
-      </c>
-      <c r="F320" s="5" t="s">
-        <v>1452</v>
       </c>
       <c r="G320" s="5" t="s">
         <v>86</v>
@@ -15612,7 +15612,7 @@
         <v>550</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="J320" s="5"/>
       <c r="K320" s="5"/>
@@ -15746,16 +15746,16 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C325" s="5">
         <v>2112</v>
       </c>
       <c r="E325" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F325" s="3" t="s">
         <v>1497</v>
-      </c>
-      <c r="F325" s="3" t="s">
-        <v>1498</v>
       </c>
       <c r="G325" s="5" t="s">
         <v>23</v>
@@ -17091,16 +17091,16 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C370" s="4">
         <v>879</v>
       </c>
       <c r="E370" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F370" s="4" t="s">
         <v>1508</v>
-      </c>
-      <c r="F370" s="4" t="s">
-        <v>1509</v>
       </c>
       <c r="G370" s="4" t="s">
         <v>316</v>
@@ -17114,16 +17114,16 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C371" s="5">
         <v>1534</v>
       </c>
       <c r="E371" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F371" s="3" t="s">
         <v>1465</v>
-      </c>
-      <c r="F371" s="3" t="s">
-        <v>1466</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>316</v>
@@ -17511,7 +17511,7 @@
         <v>791</v>
       </c>
       <c r="F384" s="5" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>447</v>
@@ -17659,7 +17659,7 @@
         <v>800</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G389" s="5" t="s">
         <v>86</v>
@@ -17711,16 +17711,16 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C391" s="4">
         <v>1757</v>
       </c>
       <c r="E391" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F391" s="4" t="s">
         <v>1523</v>
-      </c>
-      <c r="F391" s="4" t="s">
-        <v>1524</v>
       </c>
       <c r="G391" s="4" t="s">
         <v>316</v>
@@ -17884,16 +17884,16 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C397" s="5">
         <v>3163</v>
       </c>
       <c r="E397" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F397" s="3" t="s">
         <v>1437</v>
-      </c>
-      <c r="F397" s="3" t="s">
-        <v>1438</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>122</v>
@@ -17902,7 +17902,7 @@
         <v>132</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="J397" s="5"/>
       <c r="K397" s="5"/>
@@ -18101,16 +18101,16 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C404" s="5">
         <v>142</v>
       </c>
       <c r="E404" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F404" s="3" t="s">
         <v>1434</v>
-      </c>
-      <c r="F404" s="3" t="s">
-        <v>1435</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>122</v>
@@ -18283,7 +18283,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C410" s="5">
         <v>1403</v>
@@ -18292,10 +18292,10 @@
         <v>15</v>
       </c>
       <c r="E410" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F410" s="3" t="s">
         <v>1455</v>
-      </c>
-      <c r="F410" s="3" t="s">
-        <v>1456</v>
       </c>
       <c r="G410" s="5" t="s">
         <v>316</v>
@@ -18410,7 +18410,7 @@
         <v>864</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="G414" s="5" t="s">
         <v>316</v>
@@ -18459,16 +18459,16 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C416" s="4">
         <v>413</v>
       </c>
       <c r="E416" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F416" s="4" t="s">
         <v>1530</v>
-      </c>
-      <c r="F416" s="4" t="s">
-        <v>1531</v>
       </c>
       <c r="G416" s="4" t="s">
         <v>132</v>
@@ -18477,7 +18477,7 @@
         <v>132</v>
       </c>
       <c r="I416" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -18757,16 +18757,16 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C426" s="5">
         <v>708</v>
       </c>
       <c r="E426" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F426" s="3" t="s">
         <v>1443</v>
-      </c>
-      <c r="F426" s="3" t="s">
-        <v>1444</v>
       </c>
       <c r="G426" s="5" t="s">
         <v>661</v>
@@ -18785,16 +18785,16 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C427" s="5">
         <v>2015</v>
       </c>
       <c r="E427" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F427" s="3" t="s">
         <v>1446</v>
-      </c>
-      <c r="F427" s="3" t="s">
-        <v>1447</v>
       </c>
       <c r="G427" s="5" t="s">
         <v>661</v>
@@ -18822,7 +18822,7 @@
         <v>897</v>
       </c>
       <c r="F428" s="5" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="G428" s="5" t="s">
         <v>146</v>
@@ -18851,7 +18851,7 @@
         <v>899</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G429" s="5" t="s">
         <v>316</v>
@@ -19523,7 +19523,7 @@
         <v>967</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G452" s="5" t="s">
         <v>122</v>
@@ -19949,16 +19949,16 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C467" s="4">
         <v>1123</v>
       </c>
       <c r="E467" s="4" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="F467" s="4" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G467" s="4" t="s">
         <v>316</v>
@@ -20387,7 +20387,7 @@
         <v>1057</v>
       </c>
       <c r="F482" s="5" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G482" s="5" t="s">
         <v>136</v>
@@ -21611,7 +21611,7 @@
         <v>1155</v>
       </c>
       <c r="F524" s="5" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="G524" s="5" t="s">
         <v>557</v>
@@ -21640,7 +21640,7 @@
         <v>1157</v>
       </c>
       <c r="F525" s="5" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G525" s="5" t="s">
         <v>557</v>
@@ -22108,7 +22108,7 @@
         <v>1230</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="G541" s="5" t="s">
         <v>170</v>
@@ -22177,7 +22177,7 @@
         <v>13</v>
       </c>
       <c r="I543" s="5" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="J543" s="5"/>
       <c r="K543" s="5"/>
@@ -22314,8 +22314,8 @@
       <c r="E548" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="F548" s="3" t="s">
-        <v>1248</v>
+      <c r="F548" s="5" t="s">
+        <v>1579</v>
       </c>
       <c r="G548" s="5" t="s">
         <v>201</v>
@@ -22335,16 +22335,16 @@
         <v>548</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C549" s="5">
         <v>24</v>
       </c>
       <c r="E549" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F549" s="3" t="s">
         <v>1250</v>
-      </c>
-      <c r="F549" s="3" t="s">
-        <v>1251</v>
       </c>
       <c r="G549" s="5" t="s">
         <v>201</v>
@@ -22364,16 +22364,16 @@
         <v>549</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C550" s="5">
         <v>1349</v>
       </c>
       <c r="E550" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F550" s="3" t="s">
         <v>1252</v>
-      </c>
-      <c r="F550" s="3" t="s">
-        <v>1253</v>
       </c>
       <c r="G550" s="5" t="s">
         <v>201</v>
@@ -22393,16 +22393,16 @@
         <v>550</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C551" s="5">
         <v>1603</v>
       </c>
       <c r="E551" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F551" s="3" t="s">
         <v>1254</v>
-      </c>
-      <c r="F551" s="3" t="s">
-        <v>1255</v>
       </c>
       <c r="G551" s="5" t="s">
         <v>201</v>
@@ -22422,16 +22422,16 @@
         <v>551</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C552" s="5">
         <v>8</v>
       </c>
       <c r="E552" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F552" s="3" t="s">
         <v>1257</v>
-      </c>
-      <c r="F552" s="3" t="s">
-        <v>1258</v>
       </c>
       <c r="G552" s="5" t="s">
         <v>201</v>
@@ -22440,7 +22440,7 @@
         <v>132</v>
       </c>
       <c r="I552" s="5" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="J552" s="5"/>
       <c r="K552" s="5"/>
@@ -22453,16 +22453,16 @@
         <v>552</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C553" s="5">
         <v>852</v>
       </c>
       <c r="E553" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F553" s="3" t="s">
         <v>1261</v>
-      </c>
-      <c r="F553" s="3" t="s">
-        <v>1262</v>
       </c>
       <c r="G553" s="5" t="s">
         <v>201</v>
@@ -22471,7 +22471,7 @@
         <v>13</v>
       </c>
       <c r="I553" s="5" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="J553" s="5"/>
       <c r="K553" s="5"/>
@@ -22484,16 +22484,16 @@
         <v>553</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C554" s="5">
         <v>823</v>
       </c>
       <c r="E554" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F554" s="3" t="s">
         <v>1264</v>
-      </c>
-      <c r="F554" s="3" t="s">
-        <v>1265</v>
       </c>
       <c r="G554" s="5" t="s">
         <v>201</v>
@@ -22513,16 +22513,16 @@
         <v>554</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C555" s="5">
         <v>1946</v>
       </c>
       <c r="E555" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F555" s="3" t="s">
         <v>1267</v>
-      </c>
-      <c r="F555" s="3" t="s">
-        <v>1268</v>
       </c>
       <c r="G555" s="5" t="s">
         <v>201</v>
@@ -22531,7 +22531,7 @@
         <v>13</v>
       </c>
       <c r="I555" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="J555" s="5"/>
       <c r="K555" s="5"/>
@@ -22544,16 +22544,16 @@
         <v>555</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C556" s="5">
         <v>3167</v>
       </c>
       <c r="E556" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F556" s="3" t="s">
         <v>1270</v>
-      </c>
-      <c r="F556" s="3" t="s">
-        <v>1271</v>
       </c>
       <c r="G556" s="5" t="s">
         <v>201</v>
@@ -22573,16 +22573,16 @@
         <v>556</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C557" s="5">
         <v>1103</v>
       </c>
       <c r="E557" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F557" s="3" t="s">
         <v>1272</v>
-      </c>
-      <c r="F557" s="3" t="s">
-        <v>1273</v>
       </c>
       <c r="G557" s="5" t="s">
         <v>201</v>
@@ -22602,16 +22602,16 @@
         <v>557</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C558" s="5">
         <v>302</v>
       </c>
       <c r="E558" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F558" s="3" t="s">
         <v>1274</v>
-      </c>
-      <c r="F558" s="3" t="s">
-        <v>1275</v>
       </c>
       <c r="G558" s="5" t="s">
         <v>80</v>
@@ -22631,16 +22631,16 @@
         <v>558</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C559" s="5">
         <v>301</v>
       </c>
       <c r="E559" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F559" s="3" t="s">
         <v>1276</v>
-      </c>
-      <c r="F559" s="3" t="s">
-        <v>1277</v>
       </c>
       <c r="G559" s="5" t="s">
         <v>80</v>
@@ -22660,16 +22660,16 @@
         <v>559</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C560" s="5">
         <v>382</v>
       </c>
       <c r="E560" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F560" s="3" t="s">
         <v>1279</v>
-      </c>
-      <c r="F560" s="3" t="s">
-        <v>1280</v>
       </c>
       <c r="G560" s="5" t="s">
         <v>80</v>
@@ -22689,16 +22689,16 @@
         <v>560</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C561" s="5">
         <v>3169</v>
       </c>
       <c r="E561" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F561" s="3" t="s">
         <v>1281</v>
-      </c>
-      <c r="F561" s="3" t="s">
-        <v>1282</v>
       </c>
       <c r="G561" s="5" t="s">
         <v>80</v>
@@ -22718,16 +22718,16 @@
         <v>561</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C562" s="5">
         <v>2432</v>
       </c>
       <c r="E562" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F562" s="3" t="s">
         <v>1283</v>
-      </c>
-      <c r="F562" s="3" t="s">
-        <v>1284</v>
       </c>
       <c r="G562" s="5" t="s">
         <v>80</v>
@@ -22747,16 +22747,16 @@
         <v>562</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C563" s="5">
         <v>1325</v>
       </c>
       <c r="E563" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F563" s="3" t="s">
         <v>1285</v>
-      </c>
-      <c r="F563" s="3" t="s">
-        <v>1286</v>
       </c>
       <c r="G563" s="5" t="s">
         <v>80</v>
@@ -22776,16 +22776,16 @@
         <v>563</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C564" s="5">
         <v>1358</v>
       </c>
       <c r="E564" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F564" s="3" t="s">
         <v>1287</v>
-      </c>
-      <c r="F564" s="3" t="s">
-        <v>1288</v>
       </c>
       <c r="G564" s="5" t="s">
         <v>80</v>
@@ -22805,16 +22805,16 @@
         <v>564</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C565" s="5">
         <v>1508</v>
       </c>
       <c r="E565" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F565" s="3" t="s">
         <v>1290</v>
-      </c>
-      <c r="F565" s="3" t="s">
-        <v>1291</v>
       </c>
       <c r="G565" s="5" t="s">
         <v>80</v>
@@ -22834,16 +22834,16 @@
         <v>565</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C566" s="4">
         <v>1782</v>
       </c>
       <c r="E566" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F566" s="4" t="s">
         <v>1534</v>
-      </c>
-      <c r="F566" s="4" t="s">
-        <v>1535</v>
       </c>
       <c r="G566" s="4" t="s">
         <v>80</v>
@@ -22857,16 +22857,16 @@
         <v>566</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C567" s="5">
         <v>791</v>
       </c>
       <c r="E567" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F567" s="3" t="s">
         <v>1292</v>
-      </c>
-      <c r="F567" s="3" t="s">
-        <v>1293</v>
       </c>
       <c r="G567" s="5" t="s">
         <v>80</v>
@@ -22886,16 +22886,16 @@
         <v>567</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C568" s="5">
         <v>1611</v>
       </c>
       <c r="E568" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F568" s="3" t="s">
         <v>1295</v>
-      </c>
-      <c r="F568" s="3" t="s">
-        <v>1296</v>
       </c>
       <c r="G568" s="5" t="s">
         <v>80</v>
@@ -22915,16 +22915,16 @@
         <v>568</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C569" s="5">
         <v>1128</v>
       </c>
       <c r="E569" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F569" s="3" t="s">
         <v>1298</v>
-      </c>
-      <c r="F569" s="3" t="s">
-        <v>1299</v>
       </c>
       <c r="G569" s="5" t="s">
         <v>80</v>
@@ -22944,16 +22944,16 @@
         <v>569</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C570" s="5">
         <v>3168</v>
       </c>
       <c r="E570" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F570" s="3" t="s">
         <v>1300</v>
-      </c>
-      <c r="F570" s="3" t="s">
-        <v>1301</v>
       </c>
       <c r="G570" s="5" t="s">
         <v>80</v>
@@ -22973,16 +22973,16 @@
         <v>570</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C571" s="5">
         <v>1814</v>
       </c>
       <c r="E571" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F571" s="3" t="s">
         <v>1420</v>
-      </c>
-      <c r="F571" s="3" t="s">
-        <v>1421</v>
       </c>
       <c r="G571" s="5" t="s">
         <v>1028</v>
@@ -23002,16 +23002,16 @@
         <v>571</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C572" s="5">
         <v>845</v>
       </c>
       <c r="E572" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F572" s="3" t="s">
         <v>1422</v>
-      </c>
-      <c r="F572" s="3" t="s">
-        <v>1423</v>
       </c>
       <c r="G572" s="5" t="s">
         <v>1028</v>
@@ -23031,16 +23031,16 @@
         <v>572</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C573" s="5">
         <v>902</v>
       </c>
       <c r="E573" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F573" s="3" t="s">
         <v>1427</v>
-      </c>
-      <c r="F573" s="3" t="s">
-        <v>1428</v>
       </c>
       <c r="G573" s="5" t="s">
         <v>1028</v>
@@ -23049,7 +23049,7 @@
         <v>13</v>
       </c>
       <c r="I573" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="J573" s="3"/>
       <c r="K573" s="5"/>
@@ -23062,16 +23062,16 @@
         <v>573</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C574" s="5">
         <v>1682</v>
       </c>
       <c r="E574" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F574" s="3" t="s">
         <v>1429</v>
-      </c>
-      <c r="F574" s="3" t="s">
-        <v>1430</v>
       </c>
       <c r="G574" s="5" t="s">
         <v>1028</v>
@@ -23091,16 +23091,16 @@
         <v>574</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C575" s="5">
         <v>90</v>
       </c>
       <c r="E575" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F575" s="3" t="s">
         <v>1302</v>
-      </c>
-      <c r="F575" s="3" t="s">
-        <v>1303</v>
       </c>
       <c r="G575" s="5" t="s">
         <v>1028</v>
@@ -23120,16 +23120,16 @@
         <v>575</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C576" s="5">
         <v>1196</v>
       </c>
       <c r="E576" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F576" s="3" t="s">
         <v>1304</v>
-      </c>
-      <c r="F576" s="3" t="s">
-        <v>1305</v>
       </c>
       <c r="G576" s="5" t="s">
         <v>1028</v>
@@ -23149,16 +23149,16 @@
         <v>576</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C577" s="5">
         <v>861</v>
       </c>
       <c r="E577" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F577" s="3" t="s">
         <v>1425</v>
-      </c>
-      <c r="F577" s="3" t="s">
-        <v>1426</v>
       </c>
       <c r="G577" s="5" t="s">
         <v>1028</v>
@@ -23178,16 +23178,16 @@
         <v>577</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C578" s="5">
         <v>1696</v>
       </c>
       <c r="E578" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F578" s="3" t="s">
         <v>1309</v>
-      </c>
-      <c r="F578" s="3" t="s">
-        <v>1310</v>
       </c>
       <c r="G578" s="5" t="s">
         <v>136</v>
@@ -23207,16 +23207,16 @@
         <v>578</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C579" s="5">
         <v>1330</v>
       </c>
       <c r="E579" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F579" s="3" t="s">
         <v>1312</v>
-      </c>
-      <c r="F579" s="3" t="s">
-        <v>1313</v>
       </c>
       <c r="G579" s="5" t="s">
         <v>136</v>
@@ -23236,16 +23236,16 @@
         <v>579</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C580" s="5">
         <v>579</v>
       </c>
       <c r="E580" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F580" s="3" t="s">
         <v>1500</v>
-      </c>
-      <c r="F580" s="3" t="s">
-        <v>1501</v>
       </c>
       <c r="G580" s="5" t="s">
         <v>136</v>
@@ -23264,16 +23264,16 @@
         <v>580</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C581" s="5">
         <v>1674</v>
       </c>
       <c r="E581" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F581" s="3" t="s">
         <v>1314</v>
-      </c>
-      <c r="F581" s="3" t="s">
-        <v>1315</v>
       </c>
       <c r="G581" s="5" t="s">
         <v>874</v>
@@ -23293,16 +23293,16 @@
         <v>581</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C582" s="5">
         <v>712</v>
       </c>
       <c r="E582" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F582" s="3" t="s">
         <v>1316</v>
-      </c>
-      <c r="F582" s="3" t="s">
-        <v>1317</v>
       </c>
       <c r="G582" s="5" t="s">
         <v>874</v>
@@ -23322,16 +23322,16 @@
         <v>582</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C583" s="5">
         <v>1559</v>
       </c>
       <c r="E583" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F583" s="3" t="s">
         <v>1318</v>
-      </c>
-      <c r="F583" s="3" t="s">
-        <v>1319</v>
       </c>
       <c r="G583" s="5" t="s">
         <v>874</v>
@@ -23351,16 +23351,16 @@
         <v>583</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C584" s="5">
         <v>633</v>
       </c>
       <c r="E584" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F584" s="3" t="s">
         <v>1320</v>
-      </c>
-      <c r="F584" s="3" t="s">
-        <v>1321</v>
       </c>
       <c r="G584" s="5" t="s">
         <v>874</v>
@@ -23380,16 +23380,16 @@
         <v>584</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C585" s="5">
         <v>657</v>
       </c>
       <c r="E585" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F585" s="3" t="s">
         <v>1322</v>
-      </c>
-      <c r="F585" s="3" t="s">
-        <v>1323</v>
       </c>
       <c r="G585" s="5" t="s">
         <v>874</v>
@@ -23409,16 +23409,16 @@
         <v>585</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C586" s="5">
         <v>684</v>
       </c>
       <c r="E586" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F586" s="3" t="s">
         <v>1325</v>
-      </c>
-      <c r="F586" s="3" t="s">
-        <v>1326</v>
       </c>
       <c r="G586" s="5" t="s">
         <v>874</v>
@@ -23438,16 +23438,16 @@
         <v>586</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C587" s="5">
         <v>1823</v>
       </c>
       <c r="E587" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F587" s="3" t="s">
         <v>1328</v>
-      </c>
-      <c r="F587" s="3" t="s">
-        <v>1329</v>
       </c>
       <c r="G587" s="5" t="s">
         <v>874</v>
@@ -23467,16 +23467,16 @@
         <v>587</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C588" s="5">
         <v>2135</v>
       </c>
       <c r="E588" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F588" s="3" t="s">
         <v>1331</v>
-      </c>
-      <c r="F588" s="3" t="s">
-        <v>1332</v>
       </c>
       <c r="G588" s="5" t="s">
         <v>874</v>
@@ -23496,16 +23496,16 @@
         <v>588</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C589" s="5">
         <v>1426</v>
       </c>
       <c r="E589" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F589" s="3" t="s">
         <v>1333</v>
-      </c>
-      <c r="F589" s="3" t="s">
-        <v>1334</v>
       </c>
       <c r="G589" s="5" t="s">
         <v>874</v>
@@ -23525,16 +23525,16 @@
         <v>589</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C590" s="5">
         <v>1887</v>
       </c>
       <c r="E590" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F590" s="3" t="s">
         <v>1335</v>
-      </c>
-      <c r="F590" s="3" t="s">
-        <v>1336</v>
       </c>
       <c r="G590" s="5" t="s">
         <v>874</v>
@@ -23554,16 +23554,16 @@
         <v>590</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C591" s="5">
         <v>2021</v>
       </c>
       <c r="E591" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F591" s="3" t="s">
         <v>1338</v>
-      </c>
-      <c r="F591" s="3" t="s">
-        <v>1339</v>
       </c>
       <c r="G591" s="5" t="s">
         <v>874</v>
@@ -23583,16 +23583,16 @@
         <v>591</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C592" s="5">
         <v>1095</v>
       </c>
       <c r="E592" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F592" s="3" t="s">
         <v>1341</v>
-      </c>
-      <c r="F592" s="3" t="s">
-        <v>1342</v>
       </c>
       <c r="G592" s="5" t="s">
         <v>874</v>
@@ -23612,16 +23612,16 @@
         <v>592</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C593" s="5">
         <v>1675</v>
       </c>
       <c r="E593" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F593" s="3" t="s">
         <v>1344</v>
-      </c>
-      <c r="F593" s="3" t="s">
-        <v>1345</v>
       </c>
       <c r="G593" s="5" t="s">
         <v>447</v>
@@ -23641,16 +23641,16 @@
         <v>593</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C594" s="5">
         <v>1599</v>
       </c>
       <c r="E594" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F594" s="3" t="s">
         <v>1346</v>
-      </c>
-      <c r="F594" s="3" t="s">
-        <v>1347</v>
       </c>
       <c r="G594" s="5" t="s">
         <v>447</v>
@@ -23670,16 +23670,16 @@
         <v>594</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C595" s="5">
         <v>1275</v>
       </c>
       <c r="E595" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F595" s="3" t="s">
         <v>1349</v>
-      </c>
-      <c r="F595" s="3" t="s">
-        <v>1350</v>
       </c>
       <c r="G595" s="5" t="s">
         <v>447</v>
@@ -23699,16 +23699,16 @@
         <v>595</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C596" s="5">
         <v>49</v>
       </c>
       <c r="E596" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F596" s="3" t="s">
         <v>1352</v>
-      </c>
-      <c r="F596" s="3" t="s">
-        <v>1353</v>
       </c>
       <c r="G596" s="5" t="s">
         <v>447</v>
@@ -23728,16 +23728,16 @@
         <v>596</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C597" s="5">
         <v>55</v>
       </c>
       <c r="E597" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F597" s="3" t="s">
         <v>1355</v>
-      </c>
-      <c r="F597" s="3" t="s">
-        <v>1356</v>
       </c>
       <c r="G597" s="5" t="s">
         <v>447</v>
@@ -23757,16 +23757,16 @@
         <v>597</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C598" s="5">
         <v>48</v>
       </c>
       <c r="E598" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F598" s="3" t="s">
         <v>1358</v>
-      </c>
-      <c r="F598" s="3" t="s">
-        <v>1359</v>
       </c>
       <c r="G598" s="5" t="s">
         <v>447</v>
@@ -23786,16 +23786,16 @@
         <v>598</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C599" s="5">
         <v>1711</v>
       </c>
       <c r="E599" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F599" s="3" t="s">
         <v>1361</v>
-      </c>
-      <c r="F599" s="3" t="s">
-        <v>1362</v>
       </c>
       <c r="G599" s="5" t="s">
         <v>447</v>
@@ -23815,16 +23815,16 @@
         <v>599</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C600" s="5">
         <v>504</v>
       </c>
       <c r="E600" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F600" s="3" t="s">
         <v>1364</v>
-      </c>
-      <c r="F600" s="3" t="s">
-        <v>1365</v>
       </c>
       <c r="G600" s="5" t="s">
         <v>496</v>
@@ -23844,16 +23844,16 @@
         <v>600</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C601" s="5">
         <v>709</v>
       </c>
       <c r="E601" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F601" s="3" t="s">
         <v>1367</v>
-      </c>
-      <c r="F601" s="3" t="s">
-        <v>1368</v>
       </c>
       <c r="G601" s="5" t="s">
         <v>496</v>
@@ -23873,16 +23873,16 @@
         <v>601</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C602" s="5">
         <v>584</v>
       </c>
       <c r="E602" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F602" s="3" t="s">
         <v>1369</v>
-      </c>
-      <c r="F602" s="3" t="s">
-        <v>1370</v>
       </c>
       <c r="G602" s="5" t="s">
         <v>496</v>
@@ -23902,16 +23902,16 @@
         <v>602</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C603" s="5">
         <v>686</v>
       </c>
       <c r="E603" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F603" s="3" t="s">
         <v>1415</v>
-      </c>
-      <c r="F603" s="3" t="s">
-        <v>1416</v>
       </c>
       <c r="G603" s="5" t="s">
         <v>496</v>
@@ -23931,16 +23931,16 @@
         <v>603</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C604" s="5">
         <v>1766</v>
       </c>
       <c r="E604" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F604" s="3" t="s">
         <v>1371</v>
-      </c>
-      <c r="F604" s="3" t="s">
-        <v>1372</v>
       </c>
       <c r="G604" s="5" t="s">
         <v>23</v>
@@ -23960,16 +23960,16 @@
         <v>604</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C605" s="5">
         <v>1376</v>
       </c>
       <c r="E605" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F605" s="3" t="s">
         <v>1373</v>
-      </c>
-      <c r="F605" s="3" t="s">
-        <v>1374</v>
       </c>
       <c r="G605" s="5" t="s">
         <v>23</v>
@@ -23989,16 +23989,16 @@
         <v>605</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C606" s="5">
         <v>1353</v>
       </c>
       <c r="E606" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F606" s="3" t="s">
         <v>1375</v>
-      </c>
-      <c r="F606" s="3" t="s">
-        <v>1376</v>
       </c>
       <c r="G606" s="5" t="s">
         <v>23</v>
@@ -24018,16 +24018,16 @@
         <v>606</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C607" s="5">
         <v>200</v>
       </c>
       <c r="E607" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F607" s="3" t="s">
         <v>1377</v>
-      </c>
-      <c r="F607" s="3" t="s">
-        <v>1378</v>
       </c>
       <c r="G607" s="5" t="s">
         <v>506</v>
@@ -24047,16 +24047,16 @@
         <v>607</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C608" s="5">
         <v>197</v>
       </c>
       <c r="E608" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F608" s="3" t="s">
         <v>1431</v>
-      </c>
-      <c r="F608" s="3" t="s">
-        <v>1432</v>
       </c>
       <c r="G608" s="5" t="s">
         <v>506</v>
